--- a/Spider/10.xlsx
+++ b/Spider/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\qd10\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33939397-95FB-4F42-A3E6-C35EE6569D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF44B1D-FFD3-41EA-84BD-CAC1FC23686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
-  <si>
-    <t>17025827527</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>16521628688</t>
   </si>
@@ -951,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A195"/>
+  <dimension ref="A1:A194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1929,11 +1926,6 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
